--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\auta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D57FA-0E32-45C9-BE35-726729FDA275}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A046C2-3FC7-4C87-BBC2-EEBA920F7634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1470" windowWidth="28080" windowHeight="15885" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
+    <workbookView xWindow="4365" yWindow="5715" windowWidth="28080" windowHeight="15885" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>15.10.</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>celkem [Kč]</t>
+  </si>
+  <si>
+    <t>29.1.</t>
+  </si>
+  <si>
+    <t>vývoj, dle telefonátu z 26.1</t>
+  </si>
+  <si>
+    <t>18:20 / 22:30</t>
   </si>
 </sst>
 </file>
@@ -485,7 +494,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +604,18 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
@@ -615,7 +635,7 @@
       </c>
       <c r="E15" s="3">
         <f>SUM(E3:E14)</f>
-        <v>29.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -632,7 +652,7 @@
       </c>
       <c r="E17" s="3">
         <f>E15*300</f>
-        <v>8850</v>
+        <v>10350</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\auta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A046C2-3FC7-4C87-BBC2-EEBA920F7634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF3E63-77E2-4C87-A9C0-E8393B59F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="5715" windowWidth="28080" windowHeight="15885" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>15.10.</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>18:20 / 22:30</t>
+  </si>
+  <si>
+    <t>výzkum možného párování značek při jedné chybě</t>
   </si>
 </sst>
 </file>
@@ -171,11 +174,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -491,15 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -646,13 +650,24 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="3">
         <f>E15*300</f>
         <v>10350</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>45202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF3E63-77E2-4C87-A9C0-E8393B59F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D206D3F-0507-4375-9057-A618A23DCABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>15.10.</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>výzkum možného párování značek při jedné chybě</t>
+  </si>
+  <si>
+    <t>výzkum možného párování značek při jedné chybě, zpracování dalších dat</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,6 +673,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>45208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D206D3F-0507-4375-9057-A618A23DCABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC7CE4-5316-40E0-A1DF-F589DFA6D623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>15.10.</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>výzkum možného párování značek při jedné chybě, zpracování dalších dat</t>
+  </si>
+  <si>
+    <t>prvotní instalace programu panu Vránovi</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +687,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>45231</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EC7CE4-5316-40E0-A1DF-F589DFA6D623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4EB666-A8AC-4FC5-918F-155519D84705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>15.10.</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>prvotní instalace programu panu Vránovi</t>
+  </si>
+  <si>
+    <t>přidání funkcionality na filtrování dle Kategorie</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,6 +701,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>45368</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4EB666-A8AC-4FC5-918F-155519D84705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296B461-43CA-4BFA-AD92-E8F1B4D29928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9296B461-43CA-4BFA-AD92-E8F1B4D29928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E515F-DB34-43F0-91D2-EC13F5CE77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>15.10.</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>přidání funkcionality na filtrování dle Kategorie</t>
+  </si>
+  <si>
+    <t>ověření funkcionality na datasetu zábřeh</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E22" sqref="E20:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,82 +637,110 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SUM(E3:E10)</f>
+        <v>34.5</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3">
-        <f>SUM(E3:E14)</f>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3">
-        <f>E15*300</f>
+      <c r="E13" s="3">
+        <f>E11*300</f>
         <v>10350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>45202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>45208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>45231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>45368</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
-        <v>45202</v>
+        <v>45373</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>45208</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
-        <v>45231</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SUM(E18:E22)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
-        <v>45368</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>5.5</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3">
+        <f>E24*300</f>
+        <v>6300</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413E515F-DB34-43F0-91D2-EC13F5CE77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F9DEE-895E-4BE9-8CA8-088783BE142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>15.10.</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>ověření funkcionality na datasetu zábřeh</t>
+  </si>
+  <si>
+    <t>tvorba histogramu</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E20:E22"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,6 +746,63 @@
         <v>6300</v>
       </c>
     </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>45392</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>45393</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3">
+        <f>SUM(E30:E35)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3">
+        <f>E36*300</f>
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F9DEE-895E-4BE9-8CA8-088783BE142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B491B-60D8-4FE7-92D0-9CAFB40E7D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>15.10.</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>tvorba histogramu</t>
+  </si>
+  <si>
+    <t>úprava histogramu</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +772,15 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>45411</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
@@ -783,7 +794,7 @@
       </c>
       <c r="E36" s="3">
         <f>SUM(E30:E35)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -800,7 +811,7 @@
       </c>
       <c r="E38" s="3">
         <f>E36*300</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B491B-60D8-4FE7-92D0-9CAFB40E7D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB454AA3-E8D0-48FE-B962-3A953B8AE033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>15.10.</t>
   </si>
@@ -783,7 +783,15 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>45412</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
@@ -794,7 +802,7 @@
       </c>
       <c r="E36" s="3">
         <f>SUM(E30:E35)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -811,7 +819,7 @@
       </c>
       <c r="E38" s="3">
         <f>E36*300</f>
-        <v>2400</v>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB454AA3-E8D0-48FE-B962-3A953B8AE033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B11ABEF-DE20-4FC1-9E62-3DE75EA53C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>15.10.</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>úprava histogramu</t>
+  </si>
+  <si>
+    <t>bugfix in Časové údaje</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +797,15 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
+      <c r="B34" s="4">
+        <v>45415</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
@@ -802,7 +813,7 @@
       </c>
       <c r="E36" s="3">
         <f>SUM(E30:E35)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
@@ -819,7 +830,7 @@
       </c>
       <c r="E38" s="3">
         <f>E36*300</f>
-        <v>2700</v>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\PycharmProjects\CarsFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B11ABEF-DE20-4FC1-9E62-3DE75EA53C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF69ADE4-C1E6-4DAE-92FE-B0F8348175EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{F5FDD420-4A2D-4EC0-801E-60E8B6A79417}"/>
   </bookViews>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7312E-7458-4F53-AAD2-0B844DD46A77}">
-  <dimension ref="B2:F38"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,29 +807,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3">
+        <f>SUM(E30:E34)</f>
+        <v>10</v>
+      </c>
+    </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="3">
-        <f>SUM(E30:E35)</f>
-        <v>10</v>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="3">
-        <f>E36*300</f>
+      <c r="E37" s="3">
+        <f>E35*300</f>
         <v>3000</v>
       </c>
     </row>
